--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H2">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I2">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J2">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N2">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O2">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P2">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q2">
-        <v>31.21431162220176</v>
+        <v>33.90056170541666</v>
       </c>
       <c r="R2">
-        <v>31.21431162220176</v>
+        <v>305.10505534875</v>
       </c>
       <c r="S2">
-        <v>0.01002236044121817</v>
+        <v>0.009576267825654466</v>
       </c>
       <c r="T2">
-        <v>0.01002236044121817</v>
+        <v>0.0101617978787469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H3">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I3">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J3">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N3">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P3">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q3">
-        <v>377.4593159663618</v>
+        <v>398.3830928900833</v>
       </c>
       <c r="R3">
-        <v>377.4593159663618</v>
+        <v>3585.44783601075</v>
       </c>
       <c r="S3">
-        <v>0.1211954747648442</v>
+        <v>0.1125356927085503</v>
       </c>
       <c r="T3">
-        <v>0.1211954747648442</v>
+        <v>0.1194165602162349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H4">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I4">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J4">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N4">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O4">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P4">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q4">
-        <v>685.9785459737437</v>
+        <v>863.2939689319443</v>
       </c>
       <c r="R4">
-        <v>685.9785459737437</v>
+        <v>7769.645720387499</v>
       </c>
       <c r="S4">
-        <v>0.2202555137497105</v>
+        <v>0.2438642265164472</v>
       </c>
       <c r="T4">
-        <v>0.2202555137497105</v>
+        <v>0.2587750285218999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H5">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I5">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J5">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N5">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O5">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P5">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q5">
-        <v>1018.92521945905</v>
+        <v>1055.07826393375</v>
       </c>
       <c r="R5">
-        <v>1018.92521945905</v>
+        <v>9495.70437540375</v>
       </c>
       <c r="S5">
-        <v>0.3271587704917517</v>
+        <v>0.2980396643646692</v>
       </c>
       <c r="T5">
-        <v>0.3271587704917517</v>
+        <v>0.3162629621750737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H6">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I6">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J6">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N6">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O6">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P6">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q6">
-        <v>331.4068229561782</v>
+        <v>337.2980168221666</v>
       </c>
       <c r="R6">
-        <v>331.4068229561782</v>
+        <v>2023.788100933</v>
       </c>
       <c r="S6">
-        <v>0.1064088381171709</v>
+        <v>0.09528031347147477</v>
       </c>
       <c r="T6">
-        <v>0.1064088381171709</v>
+        <v>0.06740408023586172</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H7">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I7">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J7">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N7">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O7">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P7">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q7">
-        <v>1.031611470092719</v>
+        <v>1.189288273638333</v>
       </c>
       <c r="R7">
-        <v>1.031611470092719</v>
+        <v>10.703594462745</v>
       </c>
       <c r="S7">
-        <v>0.0003312320999964084</v>
+        <v>0.0003359514550005578</v>
       </c>
       <c r="T7">
-        <v>0.0003312320999964084</v>
+        <v>0.0003564928263222723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H8">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I8">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J8">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N8">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P8">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q8">
-        <v>12.47477005282695</v>
+        <v>13.97594367040367</v>
       </c>
       <c r="R8">
-        <v>12.47477005282695</v>
+        <v>125.783493033633</v>
       </c>
       <c r="S8">
-        <v>0.004005426850477728</v>
+        <v>0.003947939885688123</v>
       </c>
       <c r="T8">
-        <v>0.004005426850477728</v>
+        <v>0.004189332199787767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H9">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I9">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J9">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N9">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O9">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P9">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q9">
-        <v>22.671117813814</v>
+        <v>30.28579298700555</v>
       </c>
       <c r="R9">
-        <v>22.671117813814</v>
+        <v>272.57213688305</v>
       </c>
       <c r="S9">
-        <v>0.007279292815599138</v>
+        <v>0.008555163996281293</v>
       </c>
       <c r="T9">
-        <v>0.007279292815599138</v>
+        <v>0.009078259811911814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H10">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I10">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J10">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N10">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O10">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P10">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q10">
-        <v>33.67477573373931</v>
+        <v>37.013906081285</v>
       </c>
       <c r="R10">
-        <v>33.67477573373931</v>
+        <v>333.125154731565</v>
       </c>
       <c r="S10">
-        <v>0.01081237171799966</v>
+        <v>0.01045572875718371</v>
       </c>
       <c r="T10">
-        <v>0.01081237171799966</v>
+        <v>0.01109503245313014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H11">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I11">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J11">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N11">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O11">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P11">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q11">
-        <v>10.95276692199772</v>
+        <v>11.83297727081533</v>
       </c>
       <c r="R11">
-        <v>10.95276692199772</v>
+        <v>70.99786362489201</v>
       </c>
       <c r="S11">
-        <v>0.00351673870785717</v>
+        <v>0.003342592388435375</v>
       </c>
       <c r="T11">
-        <v>0.00351673870785717</v>
+        <v>0.00236464761016273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H12">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I12">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J12">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N12">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O12">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P12">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q12">
-        <v>1.75048258291291</v>
+        <v>3.219450829975</v>
       </c>
       <c r="R12">
-        <v>1.75048258291291</v>
+        <v>28.975057469775</v>
       </c>
       <c r="S12">
-        <v>0.0005620488320988402</v>
+        <v>0.0009094339989782548</v>
       </c>
       <c r="T12">
-        <v>0.0005620488320988402</v>
+        <v>0.0009650403111032405</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H13">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I13">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J13">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N13">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P13">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q13">
-        <v>21.16772480375241</v>
+        <v>37.83343739841499</v>
       </c>
       <c r="R13">
-        <v>21.16772480375241</v>
+        <v>340.500936585735</v>
       </c>
       <c r="S13">
-        <v>0.006796580051851114</v>
+        <v>0.01068723086185515</v>
       </c>
       <c r="T13">
-        <v>0.006796580051851114</v>
+        <v>0.01134068949186433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H14">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I14">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J14">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N14">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O14">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P14">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q14">
-        <v>38.46932495300889</v>
+        <v>81.98485054441666</v>
       </c>
       <c r="R14">
-        <v>38.46932495300889</v>
+        <v>737.8636548997499</v>
       </c>
       <c r="S14">
-        <v>0.01235181622058169</v>
+        <v>0.02315917043740729</v>
       </c>
       <c r="T14">
-        <v>0.01235181622058169</v>
+        <v>0.02457521169091777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H15">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I15">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J15">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N15">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O15">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P15">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q15">
-        <v>57.1408036012928</v>
+        <v>100.198121259075</v>
       </c>
       <c r="R15">
-        <v>57.1408036012928</v>
+        <v>901.783091331675</v>
       </c>
       <c r="S15">
-        <v>0.01834689601758446</v>
+        <v>0.02830407511067851</v>
       </c>
       <c r="T15">
-        <v>0.01834689601758446</v>
+        <v>0.03003469573491477</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H16">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I16">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J16">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N16">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O16">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P16">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q16">
-        <v>18.5851246205497</v>
+        <v>32.03234181319</v>
       </c>
       <c r="R16">
-        <v>18.5851246205497</v>
+        <v>192.19405087914</v>
       </c>
       <c r="S16">
-        <v>0.005967353054155498</v>
+        <v>0.009048531022924166</v>
       </c>
       <c r="T16">
-        <v>0.005967353054155498</v>
+        <v>0.006401195471176319</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H17">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I17">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J17">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N17">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O17">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P17">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q17">
-        <v>3.832412347598125</v>
+        <v>4.130447054723334</v>
       </c>
       <c r="R17">
-        <v>3.832412347598125</v>
+        <v>37.17402349251</v>
       </c>
       <c r="S17">
-        <v>0.001230519460813091</v>
+        <v>0.001166773210999518</v>
       </c>
       <c r="T17">
-        <v>0.001230519460813091</v>
+        <v>0.001238114237861065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H18">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I18">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J18">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N18">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P18">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q18">
-        <v>46.34347733609864</v>
+        <v>48.53902678599266</v>
       </c>
       <c r="R18">
-        <v>46.34347733609864</v>
+        <v>436.851241073934</v>
       </c>
       <c r="S18">
-        <v>0.01488006654074159</v>
+        <v>0.01371135748541335</v>
       </c>
       <c r="T18">
-        <v>0.01488006654074159</v>
+        <v>0.01454972291363326</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H19">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I19">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J19">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N19">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O19">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P19">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q19">
-        <v>84.2226694471549</v>
+        <v>105.1838038059889</v>
       </c>
       <c r="R19">
-        <v>84.2226694471549</v>
+        <v>946.6542342539</v>
       </c>
       <c r="S19">
-        <v>0.02704240159890537</v>
+        <v>0.02971243618085245</v>
       </c>
       <c r="T19">
-        <v>0.02704240159890537</v>
+        <v>0.03152916944805209</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H20">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I20">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J20">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N20">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O20">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P20">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q20">
-        <v>125.1009998105014</v>
+        <v>128.55081711143</v>
       </c>
       <c r="R20">
-        <v>125.1009998105014</v>
+        <v>1156.95735400287</v>
       </c>
       <c r="S20">
-        <v>0.04016770662229876</v>
+        <v>0.03631317570968396</v>
       </c>
       <c r="T20">
-        <v>0.04016770662229876</v>
+        <v>0.03853350372142615</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H21">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I21">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J21">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N21">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O21">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P21">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q21">
-        <v>40.68927150301627</v>
+        <v>41.09641640316934</v>
       </c>
       <c r="R21">
-        <v>40.68927150301627</v>
+        <v>246.578498419016</v>
       </c>
       <c r="S21">
-        <v>0.01306460158499087</v>
+        <v>0.01160896074735207</v>
       </c>
       <c r="T21">
-        <v>0.01306460158499087</v>
+        <v>0.00821251833836328</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H22">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I22">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J22">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N22">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O22">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P22">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q22">
-        <v>1.932561713396822</v>
+        <v>2.20760223905</v>
       </c>
       <c r="R22">
-        <v>1.932561713396822</v>
+        <v>13.2456134343</v>
       </c>
       <c r="S22">
-        <v>0.0006205112033540625</v>
+        <v>0.0006236059000249371</v>
       </c>
       <c r="T22">
-        <v>0.0006205112033540625</v>
+        <v>0.0004411570511197124</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H23">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I23">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J23">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N23">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O23">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P23">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q23">
-        <v>23.36951816303071</v>
+        <v>25.94267951977</v>
       </c>
       <c r="R23">
-        <v>23.36951816303071</v>
+        <v>155.65607711862</v>
       </c>
       <c r="S23">
-        <v>0.007503536749498484</v>
+        <v>0.007328316543992351</v>
       </c>
       <c r="T23">
-        <v>0.007503536749498484</v>
+        <v>0.005184265440866078</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H24">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I24">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J24">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N24">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O24">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P24">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q24">
-        <v>42.47077078635792</v>
+        <v>56.21764368783332</v>
       </c>
       <c r="R24">
-        <v>42.47077078635792</v>
+        <v>337.305862127</v>
       </c>
       <c r="S24">
-        <v>0.01363660932809043</v>
+        <v>0.01588042160363043</v>
       </c>
       <c r="T24">
-        <v>0.01363660932809043</v>
+        <v>0.01123427466756685</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H25">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I25">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J25">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N25">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O25">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P25">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q25">
-        <v>63.08439192169883</v>
+        <v>68.70662374484999</v>
       </c>
       <c r="R25">
-        <v>63.08439192169883</v>
+        <v>412.2397424691</v>
       </c>
       <c r="S25">
-        <v>0.02025527654451411</v>
+        <v>0.0194083223780928</v>
       </c>
       <c r="T25">
-        <v>0.02025527654451411</v>
+        <v>0.01373001484937483</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H26">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I26">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J26">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N26">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O26">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P26">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q26">
-        <v>20.51828486097535</v>
+        <v>21.96482358122</v>
       </c>
       <c r="R26">
-        <v>20.51828486097535</v>
+        <v>87.85929432488</v>
       </c>
       <c r="S26">
-        <v>0.006588056433896127</v>
+        <v>0.006204647438729757</v>
       </c>
       <c r="T26">
-        <v>0.006588056433896127</v>
+        <v>0.002926232702628416</v>
       </c>
     </row>
   </sheetData>
